--- a/UserGuide/invoice_upload_format.xlsx
+++ b/UserGuide/invoice_upload_format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
   <si>
     <t>生效日期</t>
   </si>
@@ -265,10 +265,6 @@
   </si>
   <si>
     <t>BVT8A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0117A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +788,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,7 +1021,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>28</v>
@@ -1082,7 +1078,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>30</v>

--- a/UserGuide/invoice_upload_format.xlsx
+++ b/UserGuide/invoice_upload_format.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6月'!$A$2:$Q$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6月'!$A$2:$R$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$R$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="67">
   <si>
     <t>生效日期</t>
   </si>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>BVT8A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +789,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,12 +812,13 @@
     <col min="13" max="13" width="7.5" style="19" customWidth="1"/>
     <col min="14" max="14" width="5.875" style="3" customWidth="1"/>
     <col min="15" max="15" width="9" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.25" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="16" max="16" width="9" style="19" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.25" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
@@ -833,8 +838,9 @@
       <c r="O1" s="25"/>
       <c r="P1" s="25"/>
       <c r="Q1" s="25"/>
-    </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R1" s="25"/>
+    </row>
+    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,17 +886,20 @@
       <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>43600</v>
       </c>
@@ -938,16 +947,19 @@
         <f>M3*K3</f>
         <v>8537.6</v>
       </c>
-      <c r="P3" s="7">
-        <f t="shared" ref="P3:P10" si="1">O3*0.13</f>
+      <c r="P3" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" ref="Q3:Q10" si="1">O3*0.13</f>
         <v>1109.8880000000001</v>
       </c>
-      <c r="Q3" s="7">
-        <f t="shared" ref="Q3:Q10" si="2">P3+O3</f>
+      <c r="R3" s="7">
+        <f t="shared" ref="R3:R10" si="2">Q3+O3</f>
         <v>9647.4880000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>43600</v>
       </c>
@@ -995,16 +1007,19 @@
         <f t="shared" ref="O4:O10" si="3">M4*K4</f>
         <v>8884.8000000000011</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="Q4" s="7">
         <f t="shared" si="1"/>
         <v>1155.0240000000001</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="R4" s="7">
         <f t="shared" si="2"/>
         <v>10039.824000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>43607</v>
       </c>
@@ -1052,16 +1067,19 @@
         <f t="shared" si="3"/>
         <v>8537.6</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="Q5" s="7">
         <f t="shared" si="1"/>
         <v>1109.8880000000001</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="R5" s="7">
         <f t="shared" si="2"/>
         <v>9647.4880000000012</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>43607</v>
       </c>
@@ -1109,16 +1127,19 @@
         <f t="shared" si="3"/>
         <v>8884.8000000000011</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="Q6" s="7">
         <f t="shared" si="1"/>
         <v>1155.0240000000001</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="R6" s="7">
         <f t="shared" si="2"/>
         <v>10039.824000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>43614</v>
       </c>
@@ -1166,16 +1187,19 @@
         <f t="shared" si="3"/>
         <v>10672</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="Q7" s="7">
         <f t="shared" si="1"/>
         <v>1387.3600000000001</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="7">
         <f t="shared" si="2"/>
         <v>12059.36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>43614</v>
       </c>
@@ -1223,16 +1247,19 @@
         <f t="shared" si="3"/>
         <v>11846.400000000001</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="Q8" s="7">
         <f t="shared" si="1"/>
         <v>1540.0320000000002</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="R8" s="7">
         <f t="shared" si="2"/>
         <v>13386.432000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>43621</v>
       </c>
@@ -1280,16 +1307,19 @@
         <f t="shared" si="3"/>
         <v>11846.400000000001</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="Q9" s="7">
         <f t="shared" si="1"/>
         <v>1540.0320000000002</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="R9" s="7">
         <f t="shared" si="2"/>
         <v>13386.432000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>43621</v>
       </c>
@@ -1337,16 +1367,19 @@
         <f t="shared" si="3"/>
         <v>8537.6</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="Q10" s="7">
         <f t="shared" si="1"/>
         <v>1109.8880000000001</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="R10" s="7">
         <f t="shared" si="2"/>
         <v>9647.4880000000012</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="J11" s="9" t="s">
         <v>20</v>
       </c>
@@ -1362,22 +1395,24 @@
         <f>SUM(O3:O10)</f>
         <v>77747.200000000012</v>
       </c>
-      <c r="P11" s="6">
-        <f>SUM(P3:P10)</f>
-        <v>10107.136000000002</v>
-      </c>
+      <c r="P11" s="23"/>
       <c r="Q11" s="6">
         <f>SUM(Q3:Q10)</f>
+        <v>10107.136000000002</v>
+      </c>
+      <c r="R11" s="6">
+        <f>SUM(R3:R10)</f>
         <v>87854.335999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
+      <c r="P12" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q12"/>
+  <autoFilter ref="A2:R12"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.34" right="0.43" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UserGuide/invoice_upload_format.xlsx
+++ b/UserGuide/invoice_upload_format.xlsx
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -481,6 +481,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +798,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,7 +898,7 @@
       <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="26" t="s">
         <v>13</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -954,7 +960,7 @@
         <f t="shared" ref="Q3:Q10" si="1">O3*0.13</f>
         <v>1109.8880000000001</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="27">
         <f t="shared" ref="R3:R10" si="2">Q3+O3</f>
         <v>9647.4880000000012</v>
       </c>
@@ -1014,7 +1020,7 @@
         <f t="shared" si="1"/>
         <v>1155.0240000000001</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="27">
         <f t="shared" si="2"/>
         <v>10039.824000000001</v>
       </c>
@@ -1074,7 +1080,7 @@
         <f t="shared" si="1"/>
         <v>1109.8880000000001</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="27">
         <f t="shared" si="2"/>
         <v>9647.4880000000012</v>
       </c>
@@ -1134,7 +1140,7 @@
         <f t="shared" si="1"/>
         <v>1155.0240000000001</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="27">
         <f t="shared" si="2"/>
         <v>10039.824000000001</v>
       </c>
@@ -1194,7 +1200,7 @@
         <f t="shared" si="1"/>
         <v>1387.3600000000001</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="27">
         <f t="shared" si="2"/>
         <v>12059.36</v>
       </c>
@@ -1254,7 +1260,7 @@
         <f t="shared" si="1"/>
         <v>1540.0320000000002</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="27">
         <f t="shared" si="2"/>
         <v>13386.432000000001</v>
       </c>
@@ -1314,7 +1320,7 @@
         <f t="shared" si="1"/>
         <v>1540.0320000000002</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="27">
         <f t="shared" si="2"/>
         <v>13386.432000000001</v>
       </c>
@@ -1374,7 +1380,7 @@
         <f t="shared" si="1"/>
         <v>1109.8880000000001</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="27">
         <f t="shared" si="2"/>
         <v>9647.4880000000012</v>
       </c>
